--- a/500all/speech_level/speeches_CHRG-114hhrg20838.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20838.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412655</t>
   </si>
   <si>
-    <t>Brian Babin</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Babin. Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time.    I'd like to welcome everyone today to the hearing entitled ``An Overview of the Budget Proposal for the National Aeronautics and Space Administration for Fiscal Year 2017.''    And I recognize myself for five minutes for an opening statement.    The first and perhaps most important point that I want to make today is that NASA is a worthwhile investment for the taxpayer and for our nation. Space is as important to our future as were the frontiers of land, sea, and air that we faced in the past. NASA's mission to explore outer space and to use outer space for the benefit of our nation and for mankind is an endeavor worthy of a great nation, which we are.    NASA as an agency, its employees, and contractors deserve our praise. I represent the 36th District of Texas and the home of the Johnson Space Center. I can say from personal experience talking with the folks out at Johnson that, regardless of the budgetary and policy differences in Congress and within the Administration, they are very passionate and are dedicated to NASA's mission.    Unfortunately, this Administration has once again done a disservice to NASA, its employees, and our nation by providing a budget request that ignores the budget agreement, requesting mandatory funding for NASA. I had hoped that the Administration would demonstrate leadership by proposing a realistic budget, but instead, we were presented with a list of unfunded priorities.    The Administration has also once again disregarded the priorities of previous bipartisan NASA funding bills that the President signed. For example, even if we include the so-called mandatory budget request, the budget proposal cuts the Space Launch System, or SLS, and Orion crew capsule by $840 million and the Planetary Science Division by $133 million. Without the mandatory funding, SLS and Orion are cut by $1 billion. Planetary Science is cut by $261 million. This is not acceptable. This is a budget that takes our human spaceflight program nowhere fast. This budget undermines our space program and diverts critical funding to lower-priority items.    I have been, and continue to be, concerned that the support in Congress and at NASA for the SLS and Orion programs is not matched by the Administration. The Administration consistently requests large reductions for these programs despite the insistence of Congress that they be priorities. Orion and SLS are strategic national assets and must be sufficiently funded.    Proposed cuts to the Planetary Science Division are equally disturbing. The pipeline for outer-planet missions has been woefully under-prioritized. It is critical that our nation maintain a robust outer-planet exploration program.    Already, the effects of this diminished cadence are being felt. To keep their staff employed, planetary science institutions increasingly seek funding from foreign space agencies to compensate for the lack of projects. This results in transference of valuable skills and knowledge out of the United States to countries like China. Experienced planetary scientists are also transitioning to other fields, while young scientists are choosing to not enter the field at all, gutting our national capacity in planetary science. This is disturbing and unacceptable and just plain bad for America from many viewpoints.    It is important that NASA maintains a balanced portfolio of science activities. Unfortunately, year after year, this Administration has requested disproportionate increases for Earth science activities, activities that are already funded by more than a dozen other federal agencies. This year, the President's proposal seeks to increase the science budget by $111 million, a six percent increase. This amounts to a 70 percent increase since 2007. If this money had been put toward our human spaceflight program, I don't think that we would be spending hundreds of millions on Russian launch services.    The request also dilutes NASA's existing Earth science research portfolio by conducting other agencies' work. It is developing climate sensors for NOAA and land-imaging capabilities for USGS. While NASA certainly has the expertise to do this work, they don't have the budget or the requirements. NOAA is tasked with maintaining operational climate measurements, and USGS is tasked to maintain Landsat measurements. This budget makes NASA the piggy bank for other agencies. That must end.    If NASA is tasked to do other agency's work, it should do so on a reimbursable basis, as it does successfully for other programs such as the Joint Polar Satellite System and the Geostationary Operational Environmental Satellite System.    Our nation has been spacefaring since 1958, only 58 years. And while we have accomplished great things in these 58 years, there is so much more to learn and to discover and to put to practical use for the benefit of our nation and all mankind. But we as a nation will not be leading this journey unless we adequately fund NASA's human spaceflight and planetary science missions.    Other nations, such as China, are working overtime to displace American and become the global leader in space exploration. The consequences of America getting it right or wrong are not immediate, but they are enormous. The rules are going to be made by those countries that are on the surface of the moon and Mars, not those that have stayed home.    I want to thank Administrator Bolden for his testimony, and I look forward to a robust discussion. Thank you.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>412263</t>
   </si>
   <si>
-    <t>Donna F. Edwards</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Edwards. Thank you very much, Chairman Babin, and thank you for calling this hearing to examine the fiscal year 2017 budget request for the National Aeronautics and Space Administration, NASA.    I'd like to start by joining you in welcoming our good friend and inspiring leader and exemplar of public service, Administrator General Charlie Bolden. Thank you, General Bolden, for your service to our nation. And we are very fortunate to have you at the helm of our nation's space agency for your consistency, your steadfastness.    Mr. Chairman, our space program is a shining example of what we can accomplish as a nation when we harness the talents of our workforce and the capabilities of our industry, academia, and international partners.    The fiscal year 2017 budget request for NASA is $19 billion, a 1.3 percent reduction from the enacted appropriation for fiscal year 2016. And I would like to say that I was very pleased with that enacted appropriation. And so while this proposal is a good starting point for the Administration for this morning's discussion, I hope that we can at least get to the $19.3 billion level that Congress appropriated for NASA in fiscal year 2016. It's a gentle dance that we do every year.    I'm pleased that the request proposes to revitalize our nation's aeronautics research activities with an exciting initiative to use ``X-planes'' to demonstrate technologies leading to cleaner, quieter, and more efficient aircraft. Demonstrating and applying advanced technologies is important to maintaining our competitive edge and sustaining the significant economic benefits that commercial aviation provides.    And I'm heartened that the request proposes increases above the levels provided in the fiscal year 2016 appropriations for the safety, security, and mission services account, which, among other things, provides the funding to operate NASA's field centers, including the Goddard Space Flight Center in Maryland.    I'm also pleased that the request would sustain a robust science program composed of research and data analysis grants and small and medium and large missions, including development of high-priority missions such as the James Webb Space Telescope, the Wide-Field Infrared Survey Telescope, the Europa Clipper, the Mars 2020 Rover, and the Solar Probe Plus missions. NASA's science programs are furthering our knowledge of our home planet and opening new windows into our universe. And if humanity is one day to extend its presence beyond Earth, we will need the scientific understanding to do just that. We'll also need to take a series of steps along a pathway involving technology development, demonstration of operational capabilities, and development and testing of exploration systems to make that move.    And while NASA has developed a ``Journey to Mars'' strategy that provides an initial outline of a pathway to Mars, we shouldn't have to say it again, but we need a baseline roadmap and structure to support such a multi-decadal endeavor, and we need that now. Such a roadmap would help put in sharp focus the impacts that the proposed reductions to the Space Launch System and the Orion crew vehicle, a combined 22 percent from the fiscal year 2016 enacted level, would have on making progress towards the humans-to-Mars goal.    Frankly, I'm a little bit puzzled by the deja vu we're experiencing with the proposed reductions to the SLS and Orion programs. I share that concern that the Chairman has expressed from the levels Congress appropriated just this past fiscal year in 2016.    Even more puzzling and somewhat concerning is a continued talk of targeting an internal date for the first crewed Orion and SLS flight and the EM-2 mission in 2021 when the resources being requested are actually geared to a 2023 date, and so that needs some explaining. The Aerospace Safety Advisory Panel raised caution about this kind of approach in its 2015 annual report when it said ``NASA has briefed the ASAP on measures... that appear to be making safety tradeoffs in order to maintain a 2021 EM-2 launch schedule.'' The ASAP went on to say ``while the desire to fly crew on Orion as soon as possible is understandable, NASA is building a long-term exploration program and adjustments to the near-term schedule or mission content that result in far safer systems can be an advantageous trade.''    Mr. Chairman, I know that you and I and many of our colleagues here this morning want to get to Mars sooner rather than later, but we must establish an enduring system that will get us there and back safely time and time again. To do so, we need to ask ourselves some important questions. Will Congress and NASA be able to establish the budgetary and programmatic discipline required to meet this goal? Will this committee and the Congress be true to providing the funding stability, sustainability, and constancy of purpose that we and others have said are critical for NASA as we prepare to transition to a new Administration less than a year from now? How will we navigate the bifurcated 2017 budget request, including both mandatory and discretionary funding, to provide the necessary stability?    And, Mr. Chairman, we owe our next generation a vibrant space agency, in partnership with industry, academia, and international partners, to continue its historic mission and to pursue the goal of one day sending humans to the surface of Mars. The future is now. The choice is ours, and it's up to us to ensure the future of our space program is a bright one.    I want to also acknowledge the presence here today of our future, Kendra Wood, who's an intern in my office and a graduate of the University of Maryland Eastern Shore. She is a superstar, and we owe it to her generation, also to our visitors from Spelman College, a senior at Spelman, Antonia Hill, who's visiting with us here today. And so let's keep these young people in mind as we talk about the future of space.    And I yield the balance of my time.</t>
   </si>
   <si>
@@ -76,9 +70,6 @@
     <t>400381</t>
   </si>
   <si>
-    <t>Lamar Smith</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman.    And Administrator Bolden, welcome. I'm glad you're here.    Mr. Chairman, this committee has demonstrated time and again that U.S. leadership in space is a bipartisan priority. I believe that many of the hardworking scientists, engineers, and innovators working at NASA share our interest in ensuring America leads the world in space.    There are some areas of agreement between the Committee and the Administration in NASA's fiscal year 2017 budget request. But this proposed budget continues to tie our astronauts' feet to the ground and makes a Mars mission all but impossible.    This budget cuts funding for human exploration by nearly $1 billion, and robotic exploration by almost a quarter of a billion dollars. The budget request once again underfunds the Space Launch System and Orion programs. This Administration cannot continue to tout plans to send astronauts to Mars while strangling the programs that will take them there.    The Administration also attempts to redistribute funding within NASA's Science Mission Directorate. For example, Jupiter's moon Europa is one of the most promising destinations we have in our own solar system for finding life beyond our planet. However, this year's request of only $17 million for the Europa mission is incredibly disappointing considering the mission's potential. This represents roughly a 90 percent reduction from the fiscal year 2016 level.    However, support for other priorities such as the James Webb Space Telescope, the Transitioning Exoplanet Survey Satellite, and the Wide-Field Infrared Space Telescope is encouraging. Missions like these, as well as their search for exoplanets and signs of life in other areas of our universe, captivate the American public's imagination.    Overall, though, there is a lack of balance in the science account request. One of the most glaring examples is the disproportionate increase in the Earth Science Division receives at the expense of other science divisions and human and robotic space exploration. This represents a 70 percent increase for the Earth Science Division since the fiscal year 2007 request. Over the same period, NASA's overall yearly budget has only increased 20 percent.    The Earth science budget request is 42 percent more than the planetary science budget request. In fact, the planetary science budget request is a reduction of $113 million over last year's level. The Earth science request also is more than the Astrophysics Division, the James Webb Space Telescope, and the Heliophysics Division combined. There are 13 other federal agencies involved in Earth science research but only one that is responsible for space science and exploration, and that's     This budget also proposes $223 million to fund the uninspiring Asteroid Retrieval and Redirect Mission. On April 15, 2010, the President directed NASA to conduct a crewed mission to an asteroid by 2025. Then, with the 2014 budget request, the Administration changed course and directed NASA to redirect an asteroid to orbit the moon and then visit that asteroid in lunar orbit. Then, last year, NASA decided to only remove and redirect a boulder from a larger asteroid.    Originally scheduled for 2017, then 2020, this budget request now slips the first robotic launch to 2021. The crewed encounter will also slip to 2026 and more likely later based on SLS mission requirements. In practical terms, the President's own budget delays the ARM beyond the next Administration's second term.    All of NASA's advisory bodies have criticized the project. International interest is absent. The scientific community is unimpressed. The Administration continues to push this mission on NASA without any connection to a larger exploration roadmap and absent support from the scientific community or NASA's own advisory committees.    It is NASA's responsibility to provide a compelling plan for space exploration and execute it. It is Congress's responsibility to ensure NASA's budget is prioritized and funded. This committee will do everything in its power to support American leadership in space.    Mr. Chairman, before I yield back, let me compliment Administrator Bolden because I think he is a committed public servant. I think he is doing the best job anybody can do under the circumstances. And I have a hunch if he were writing this budget, it might vary slightly from the Administration's proposed budget.    You don't need to respond to that, Administrator Bolden, we all have our different priorities. But this is simply to say I appreciate the job that you're doing, and I continue to be impressed with your sincerity and dedication.    With that I'll yield back.</t>
   </si>
   <si>
@@ -88,9 +79,6 @@
     <t>400204</t>
   </si>
   <si>
-    <t>Eddie Bernice Johnson</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Mr. Chairman.    Let me comment before my time starts on how pleased I am to hear those remarks from my Chairman. And I really agree with him, and that's extraordinary.    Let me say good morning to everyone and to acknowledge that I have a student here with me today, Adia Moss, who is a senior at Spelman, and hasten to say that I appreciate the long and distinguished service to our nation and your steady leadership of NASA, General Bolden. We know that this is a challenging and exciting time in the agency's history. I know how passionately you care about the nation's space and aeronautics program, and I look forward to hearing your testimony today.    Today's hearing marks the beginning of the Committee's consideration of the President's fiscal year 2017 NASA budget request. The $19 billion budget request is a strong endorsement by the President of the important role that NASA plays. We send budgets out of here with a lot less, and then we complain about what the President is doing, which is, to them, a lot less.    This is not to say that this is perfect for a NASA budget request, but I do agree with all the elements of it. It is a good starting point. It is Congress's deliberations. It is our responsibility to send what we feel is a responsible budget because it is what our focus should be today, what we want NASA to accomplish, and what we are willing to invest in NASA to do it so that we can achieve those objectives.    It may be tempting for some of us to spend our time criticizing the President for what they consider shortcomings in his budget request, but I think it's not a good use of anybody's time. The President has submitted his NASA budget request to Congress. It is now our job to determine the funding that NASA will receive and the policies it will follow. If we fail to do that, we will have no one to blame but ourselves.    That said, there is much to recommend in this NASA budget request. For example, I'm excited by the aeronautics initiative. I know the important role that aviation plays in our economy and our society, and NASA's R&amp;D has long provided the underpinnings of new capabilities in aviation. I'm also pleased by the investments made in NASA's science and technology activities. History shows us that these investments will pay dividends in increased knowledge and new technological capabilities.    On the other hand, I'm disappointed that the funding for the Space Launch System and the Orion spacecraft, the systems that are essential elements of the nation's future human exploration initiatives, have been cut in this budget request. We can change that if we wish. Such cuts add just one more challenge to those already facing the team of dedicated men and women who are working so hard to turn these exploration goals into reality. I would anticipate that Congress will reaffirm its support for SLS and the Orion by the time this year's funding deliberations are complete.    Which brings me to one final observation, namely, we will have a new President by this time next year. I know that there are those in NASA who feel the pressure to accomplish as much as possible on the new exploration systems before a new Administrator takes power. That's understandable. But it can wind up doing more harm than good. In its latest report, the Aerospace Safety Advisory Panel has raised concerns that perceived schedule pressure, whether external or self-imposed, can lead to excessive levels of risk being taken on in order to try to meet arbitrary deadlines. That's not the path to a sustainable or a successful program.    I hope that NASA management and workers will heed the ASAP's concern and not defer needed testing or make overly optimistic commitments in a shortsighted attempt to keep those programs alive in advance of a new Presidential Administration taking power. To all those NASA and contract employees, I would simply say, Congress supports SLS and Orion and commercial crew, and we will continue to do so no matter what we say here to make the news or the record. We will do this in spite of a new President taking office. We know that what we do actually is rocket science. So take time and the testing needed to do it right.    With that, Administrator Bolden, I again want to welcome you. I look forward to your testimony. And I yield back.</t>
   </si>
   <si>
@@ -160,9 +148,6 @@
     <t>400343</t>
   </si>
   <si>
-    <t>Dana Rohrabacher</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. All right. Thank you very much.    General, I notice--welcome. Important I share the Chairman's and other people's admiration and gratitude to you----    Hon. Bolden. Thank you.</t>
   </si>
   <si>
@@ -253,9 +238,6 @@
     <t>412395</t>
   </si>
   <si>
-    <t>Mo Brooks</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Chairman.    Administrator Bolden, first, I'd like to applaud your choice of Todd May as Director of the Marshall Space Flight Center located in my district. And I'd also like to thank his predecessor, Patrick Scheuermann, for his many years of service and leadership at NASA, especially at the Marshall Space Flight Center. I'm excited about the continued success at Marshall and throughout NASA.    That having been said, have you designated a NASA center lead for rocket propulsion that would be able to integrate all of NASA's expertise in deep space travel on the Journey to Mars?    Hon. Bolden. Congressman, we don't use the term ``lead center'' anymore. It has a bad connotation for people who were around at the time of Challenger.    But what we have done is we have an effort ongoing. It started out as something we call TCAT that I think we explained it to everybody. Now, it's just baseline services assessment where we're trying to identify centers who have the highest level of capability in a particular field. There is no question that the Marshall Space Flight Center is the--one of their core capabilities is propulsion, and so no question whether we're talking to DOD or anybody else outside of NASA that Marshall is the place that people go when they want to discuss in space and leaving the Earth propulsion issues.</t>
   </si>
   <si>
@@ -283,9 +265,6 @@
     <t>412657</t>
   </si>
   <si>
-    <t>Donald S. Beyer, Jr.</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman, very much. Thank you, Administrator Bolden, for being with us again.    The planetary sciences come up again and again, and I think in the opening Chairman's remarks he talked about why is NASA paying for NOAA's satellite research? Why is NASA paying for USGS's Landsat stuff? So why? Why don't they pay for----    Hon. Bolden. In the case of USGS and Landsat it is because the Congress refused the President's budget request to transfer money for Landsat into the Department of interior. So this Congress decided that sustained land imaging is really important, and they put the money back in the--you know, according to my budget people, they put the money back into NASA because we've done it for so long. I'll go back and double-check my memory, but I think that--that's pretty simple in that case.</t>
   </si>
   <si>
@@ -334,9 +313,6 @@
     <t>412614</t>
   </si>
   <si>
-    <t>Stephen Knight</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair, and thank you for having this.    Administrator Bolden, I want to thank you. You know I'm going to talk about the big A----    Hon. Bolden. Yes, sir.</t>
   </si>
   <si>
@@ -379,9 +355,6 @@
     <t>412192</t>
   </si>
   <si>
-    <t>Ed Perlmutter</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thank you.</t>
   </si>
   <si>
@@ -401,9 +374,6 @@
   </si>
   <si>
     <t>412309</t>
-  </si>
-  <si>
-    <t>Bill Posey</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Posey. Thank you, Mr. Chairman. And thank you, General, for your service to our armed forces and NASA.    Hon. Bolden. Thank you.</t>
@@ -907,11 +877,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -933,11 +901,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -957,13 +923,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -985,11 +949,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1009,13 +971,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1037,11 +997,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1061,13 +1019,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1089,11 +1045,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1113,13 +1067,11 @@
         <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>19</v>
-      </c>
-      <c r="G10" t="s">
-        <v>20</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1141,11 +1093,9 @@
       <c r="F11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
-        <v>12</v>
-      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1165,13 +1115,11 @@
         <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1193,11 +1141,9 @@
       <c r="F13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
-        <v>12</v>
-      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1219,11 +1165,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1245,11 +1189,9 @@
       <c r="F15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
-        <v>12</v>
-      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1271,11 +1213,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1297,11 +1237,9 @@
       <c r="F17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
-        <v>12</v>
-      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1323,11 +1261,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1349,11 +1285,9 @@
       <c r="F19" t="s">
         <v>11</v>
       </c>
-      <c r="G19" t="s">
-        <v>12</v>
-      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1373,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1399,13 +1331,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>15</v>
-      </c>
-      <c r="G21" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1425,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1451,13 +1379,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>15</v>
-      </c>
-      <c r="G23" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1477,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
-      </c>
-      <c r="G24" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1503,13 +1427,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
-      </c>
-      <c r="G25" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1529,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G26" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1557,11 +1477,9 @@
       <c r="F27" t="s">
         <v>11</v>
       </c>
-      <c r="G27" t="s">
-        <v>12</v>
-      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1581,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F28" t="s">
-        <v>15</v>
-      </c>
-      <c r="G28" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1609,11 +1525,9 @@
       <c r="F29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
-        <v>12</v>
-      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1633,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F30" t="s">
-        <v>47</v>
-      </c>
-      <c r="G30" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1659,13 +1571,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>47</v>
-      </c>
-      <c r="G31" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1685,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F32" t="s">
-        <v>47</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1711,13 +1619,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
+        <v>43</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
         <v>47</v>
-      </c>
-      <c r="G33" t="s">
-        <v>48</v>
-      </c>
-      <c r="H33" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1737,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34" t="s">
+        <v>43</v>
+      </c>
+      <c r="G34" t="s"/>
+      <c r="H34" t="s">
         <v>48</v>
-      </c>
-      <c r="H34" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1763,13 +1667,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
-      </c>
-      <c r="G35" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1789,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
-      </c>
-      <c r="G36" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1815,13 +1715,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1841,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F38" t="s">
-        <v>47</v>
-      </c>
-      <c r="G38" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1867,13 +1763,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>47</v>
-      </c>
-      <c r="G39" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1893,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
-      </c>
-      <c r="G40" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1919,13 +1811,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
-      </c>
-      <c r="G41" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1945,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F42" t="s">
-        <v>47</v>
-      </c>
-      <c r="G42" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1971,13 +1859,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>47</v>
-      </c>
-      <c r="G43" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1997,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>47</v>
-      </c>
-      <c r="G44" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2023,13 +1907,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>47</v>
-      </c>
-      <c r="G45" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2049,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
-      </c>
-      <c r="G46" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2075,13 +1955,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
-      </c>
-      <c r="G47" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2101,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>47</v>
-      </c>
-      <c r="G48" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2127,13 +2003,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>47</v>
-      </c>
-      <c r="G49" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2153,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>47</v>
-      </c>
-      <c r="G50" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2179,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>47</v>
-      </c>
-      <c r="G51" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2205,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>47</v>
-      </c>
-      <c r="G52" t="s">
-        <v>48</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2233,11 +2101,9 @@
       <c r="F53" t="s">
         <v>11</v>
       </c>
-      <c r="G53" t="s">
-        <v>12</v>
-      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2257,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>23</v>
-      </c>
-      <c r="G54" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2283,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2309,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>23</v>
-      </c>
-      <c r="G56" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2335,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>24</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2363,11 +2221,9 @@
       <c r="F58" t="s">
         <v>11</v>
       </c>
-      <c r="G58" t="s">
-        <v>12</v>
-      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2387,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>78</v>
-      </c>
-      <c r="G59" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2413,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>78</v>
-      </c>
-      <c r="G60" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2439,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>78</v>
-      </c>
-      <c r="G61" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2465,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>78</v>
-      </c>
-      <c r="G62" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2491,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
+        <v>73</v>
+      </c>
+      <c r="G63" t="s"/>
+      <c r="H63" t="s">
         <v>78</v>
-      </c>
-      <c r="G63" t="s">
-        <v>79</v>
-      </c>
-      <c r="H63" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2517,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>78</v>
-      </c>
-      <c r="G64" t="s">
+        <v>73</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
         <v>79</v>
-      </c>
-      <c r="H64" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2543,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>78</v>
-      </c>
-      <c r="G65" t="s">
-        <v>79</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2571,11 +2413,9 @@
       <c r="F66" t="s">
         <v>11</v>
       </c>
-      <c r="G66" t="s">
-        <v>12</v>
-      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2595,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>88</v>
-      </c>
-      <c r="G67" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2621,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>88</v>
-      </c>
-      <c r="G68" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2647,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>88</v>
-      </c>
-      <c r="G69" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2673,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F70" t="s">
-        <v>88</v>
-      </c>
-      <c r="G70" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2699,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>88</v>
-      </c>
-      <c r="G71" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2725,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
+        <v>82</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
         <v>88</v>
-      </c>
-      <c r="G72" t="s">
-        <v>89</v>
-      </c>
-      <c r="H72" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2751,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>88</v>
-      </c>
-      <c r="G73" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s"/>
+      <c r="H73" t="s">
         <v>89</v>
-      </c>
-      <c r="H73" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2777,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>88</v>
-      </c>
-      <c r="G74" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2803,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>88</v>
-      </c>
-      <c r="G75" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2829,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>88</v>
-      </c>
-      <c r="G76" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2855,13 +2675,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>88</v>
-      </c>
-      <c r="G77" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G77" t="s"/>
       <c r="H77" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2881,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>88</v>
-      </c>
-      <c r="G78" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2907,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>88</v>
-      </c>
-      <c r="G79" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2933,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>88</v>
-      </c>
-      <c r="G80" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2961,11 +2773,9 @@
       <c r="F81" t="s">
         <v>11</v>
       </c>
-      <c r="G81" t="s">
-        <v>12</v>
-      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2985,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>105</v>
-      </c>
-      <c r="G82" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3011,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>105</v>
-      </c>
-      <c r="G83" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3037,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>105</v>
-      </c>
-      <c r="G84" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3063,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>105</v>
-      </c>
-      <c r="G85" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3089,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>105</v>
-      </c>
-      <c r="G86" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3115,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>105</v>
-      </c>
-      <c r="G87" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3141,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
+        <v>98</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
         <v>105</v>
-      </c>
-      <c r="G88" t="s">
-        <v>106</v>
-      </c>
-      <c r="H88" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3167,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>105</v>
-      </c>
-      <c r="G89" t="s">
+        <v>98</v>
+      </c>
+      <c r="G89" t="s"/>
+      <c r="H89" t="s">
         <v>106</v>
-      </c>
-      <c r="H89" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3193,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>105</v>
-      </c>
-      <c r="G90" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3219,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3245,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>105</v>
-      </c>
-      <c r="G92" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3271,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>105</v>
-      </c>
-      <c r="G93" t="s">
-        <v>106</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3299,11 +3085,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3323,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F95" t="s">
-        <v>120</v>
-      </c>
-      <c r="G95" t="s">
-        <v>121</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3351,11 +3133,9 @@
       <c r="F96" t="s">
         <v>11</v>
       </c>
-      <c r="G96" t="s">
-        <v>12</v>
-      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3375,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>120</v>
-      </c>
-      <c r="G97" t="s">
-        <v>121</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3401,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>120</v>
-      </c>
-      <c r="G98" t="s">
-        <v>121</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3427,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>120</v>
-      </c>
-      <c r="G99" t="s">
-        <v>121</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3455,11 +3229,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3479,13 +3251,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>128</v>
-      </c>
-      <c r="G101" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3505,13 +3275,11 @@
         <v>10</v>
       </c>
       <c r="F102" t="s">
-        <v>128</v>
-      </c>
-      <c r="G102" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3531,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>128</v>
-      </c>
-      <c r="G103" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3557,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>128</v>
-      </c>
-      <c r="G104" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3583,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>128</v>
-      </c>
-      <c r="G105" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3609,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>128</v>
-      </c>
-      <c r="G106" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3635,13 +3395,11 @@
         <v>10</v>
       </c>
       <c r="F107" t="s">
-        <v>128</v>
-      </c>
-      <c r="G107" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3661,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>128</v>
-      </c>
-      <c r="G108" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3687,13 +3443,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
+        <v>119</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
         <v>128</v>
-      </c>
-      <c r="G109" t="s">
-        <v>129</v>
-      </c>
-      <c r="H109" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3715,11 +3469,9 @@
       <c r="F110" t="s">
         <v>11</v>
       </c>
-      <c r="G110" t="s">
-        <v>12</v>
-      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3741,11 +3493,9 @@
       <c r="F111" t="s">
         <v>11</v>
       </c>
-      <c r="G111" t="s">
-        <v>12</v>
-      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3767,11 +3517,9 @@
       <c r="F112" t="s">
         <v>11</v>
       </c>
-      <c r="G112" t="s">
-        <v>12</v>
-      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3793,11 +3541,9 @@
       <c r="F113" t="s">
         <v>11</v>
       </c>
-      <c r="G113" t="s">
-        <v>12</v>
-      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3819,11 +3565,9 @@
       <c r="F114" t="s">
         <v>11</v>
       </c>
-      <c r="G114" t="s">
-        <v>12</v>
-      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3845,11 +3589,9 @@
       <c r="F115" t="s">
         <v>11</v>
       </c>
-      <c r="G115" t="s">
-        <v>12</v>
-      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3871,11 +3613,9 @@
       <c r="F116" t="s">
         <v>11</v>
       </c>
-      <c r="G116" t="s">
-        <v>12</v>
-      </c>
+      <c r="G116" t="s"/>
       <c r="H116" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3895,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>15</v>
-      </c>
-      <c r="G117" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3923,11 +3661,9 @@
       <c r="F118" t="s">
         <v>11</v>
       </c>
-      <c r="G118" t="s">
-        <v>12</v>
-      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3947,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>128</v>
-      </c>
-      <c r="G119" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3973,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>128</v>
-      </c>
-      <c r="G120" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3999,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>128</v>
-      </c>
-      <c r="G121" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4025,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>128</v>
-      </c>
-      <c r="G122" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4051,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>128</v>
-      </c>
-      <c r="G123" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4077,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>128</v>
-      </c>
-      <c r="G124" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4103,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>128</v>
-      </c>
-      <c r="G125" t="s">
-        <v>129</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4131,11 +3853,9 @@
       <c r="F126" t="s">
         <v>11</v>
       </c>
-      <c r="G126" t="s">
-        <v>12</v>
-      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4155,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>88</v>
-      </c>
-      <c r="G127" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4181,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>88</v>
-      </c>
-      <c r="G128" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4207,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>88</v>
-      </c>
-      <c r="G129" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4233,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>88</v>
-      </c>
-      <c r="G130" t="s">
-        <v>89</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4261,11 +3973,9 @@
       <c r="F131" t="s">
         <v>11</v>
       </c>
-      <c r="G131" t="s">
-        <v>12</v>
-      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4285,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>120</v>
-      </c>
-      <c r="G132" t="s">
-        <v>121</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4311,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>120</v>
-      </c>
-      <c r="G133" t="s">
-        <v>121</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4337,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>120</v>
-      </c>
-      <c r="G134" t="s">
-        <v>121</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4363,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>120</v>
-      </c>
-      <c r="G135" t="s">
-        <v>121</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4391,11 +4093,9 @@
       <c r="F136" t="s">
         <v>11</v>
       </c>
-      <c r="G136" t="s">
-        <v>12</v>
-      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20838.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20838.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Babin</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Babin. Without objection, the Chair is authorized to declare recesses of the Subcommittee at any time.    I'd like to welcome everyone today to the hearing entitled ``An Overview of the Budget Proposal for the National Aeronautics and Space Administration for Fiscal Year 2017.''    And I recognize myself for five minutes for an opening statement.    The first and perhaps most important point that I want to make today is that NASA is a worthwhile investment for the taxpayer and for our nation. Space is as important to our future as were the frontiers of land, sea, and air that we faced in the past. NASA's mission to explore outer space and to use outer space for the benefit of our nation and for mankind is an endeavor worthy of a great nation, which we are.    NASA as an agency, its employees, and contractors deserve our praise. I represent the 36th District of Texas and the home of the Johnson Space Center. I can say from personal experience talking with the folks out at Johnson that, regardless of the budgetary and policy differences in Congress and within the Administration, they are very passionate and are dedicated to NASA's mission.    Unfortunately, this Administration has once again done a disservice to NASA, its employees, and our nation by providing a budget request that ignores the budget agreement, requesting mandatory funding for NASA. I had hoped that the Administration would demonstrate leadership by proposing a realistic budget, but instead, we were presented with a list of unfunded priorities.    The Administration has also once again disregarded the priorities of previous bipartisan NASA funding bills that the President signed. For example, even if we include the so-called mandatory budget request, the budget proposal cuts the Space Launch System, or SLS, and Orion crew capsule by $840 million and the Planetary Science Division by $133 million. Without the mandatory funding, SLS and Orion are cut by $1 billion. Planetary Science is cut by $261 million. This is not acceptable. This is a budget that takes our human spaceflight program nowhere fast. This budget undermines our space program and diverts critical funding to lower-priority items.    I have been, and continue to be, concerned that the support in Congress and at NASA for the SLS and Orion programs is not matched by the Administration. The Administration consistently requests large reductions for these programs despite the insistence of Congress that they be priorities. Orion and SLS are strategic national assets and must be sufficiently funded.    Proposed cuts to the Planetary Science Division are equally disturbing. The pipeline for outer-planet missions has been woefully under-prioritized. It is critical that our nation maintain a robust outer-planet exploration program.    Already, the effects of this diminished cadence are being felt. To keep their staff employed, planetary science institutions increasingly seek funding from foreign space agencies to compensate for the lack of projects. This results in transference of valuable skills and knowledge out of the United States to countries like China. Experienced planetary scientists are also transitioning to other fields, while young scientists are choosing to not enter the field at all, gutting our national capacity in planetary science. This is disturbing and unacceptable and just plain bad for America from many viewpoints.    It is important that NASA maintains a balanced portfolio of science activities. Unfortunately, year after year, this Administration has requested disproportionate increases for Earth science activities, activities that are already funded by more than a dozen other federal agencies. This year, the President's proposal seeks to increase the science budget by $111 million, a six percent increase. This amounts to a 70 percent increase since 2007. If this money had been put toward our human spaceflight program, I don't think that we would be spending hundreds of millions on Russian launch services.    The request also dilutes NASA's existing Earth science research portfolio by conducting other agencies' work. It is developing climate sensors for NOAA and land-imaging capabilities for USGS. While NASA certainly has the expertise to do this work, they don't have the budget or the requirements. NOAA is tasked with maintaining operational climate measurements, and USGS is tasked to maintain Landsat measurements. This budget makes NASA the piggy bank for other agencies. That must end.    If NASA is tasked to do other agency's work, it should do so on a reimbursable basis, as it does successfully for other programs such as the Joint Polar Satellite System and the Geostationary Operational Environmental Satellite System.    Our nation has been spacefaring since 1958, only 58 years. And while we have accomplished great things in these 58 years, there is so much more to learn and to discover and to put to practical use for the benefit of our nation and all mankind. But we as a nation will not be leading this journey unless we adequately fund NASA's human spaceflight and planetary science missions.    Other nations, such as China, are working overtime to displace American and become the global leader in space exploration. The consequences of America getting it right or wrong are not immediate, but they are enormous. The rules are going to be made by those countries that are on the surface of the moon and Mars, not those that have stayed home.    I want to thank Administrator Bolden for his testimony, and I look forward to a robust discussion. Thank you.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>412263</t>
   </si>
   <si>
+    <t>Edwards</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Edwards. Thank you very much, Chairman Babin, and thank you for calling this hearing to examine the fiscal year 2017 budget request for the National Aeronautics and Space Administration, NASA.    I'd like to start by joining you in welcoming our good friend and inspiring leader and exemplar of public service, Administrator General Charlie Bolden. Thank you, General Bolden, for your service to our nation. And we are very fortunate to have you at the helm of our nation's space agency for your consistency, your steadfastness.    Mr. Chairman, our space program is a shining example of what we can accomplish as a nation when we harness the talents of our workforce and the capabilities of our industry, academia, and international partners.    The fiscal year 2017 budget request for NASA is $19 billion, a 1.3 percent reduction from the enacted appropriation for fiscal year 2016. And I would like to say that I was very pleased with that enacted appropriation. And so while this proposal is a good starting point for the Administration for this morning's discussion, I hope that we can at least get to the $19.3 billion level that Congress appropriated for NASA in fiscal year 2016. It's a gentle dance that we do every year.    I'm pleased that the request proposes to revitalize our nation's aeronautics research activities with an exciting initiative to use ``X-planes'' to demonstrate technologies leading to cleaner, quieter, and more efficient aircraft. Demonstrating and applying advanced technologies is important to maintaining our competitive edge and sustaining the significant economic benefits that commercial aviation provides.    And I'm heartened that the request proposes increases above the levels provided in the fiscal year 2016 appropriations for the safety, security, and mission services account, which, among other things, provides the funding to operate NASA's field centers, including the Goddard Space Flight Center in Maryland.    I'm also pleased that the request would sustain a robust science program composed of research and data analysis grants and small and medium and large missions, including development of high-priority missions such as the James Webb Space Telescope, the Wide-Field Infrared Survey Telescope, the Europa Clipper, the Mars 2020 Rover, and the Solar Probe Plus missions. NASA's science programs are furthering our knowledge of our home planet and opening new windows into our universe. And if humanity is one day to extend its presence beyond Earth, we will need the scientific understanding to do just that. We'll also need to take a series of steps along a pathway involving technology development, demonstration of operational capabilities, and development and testing of exploration systems to make that move.    And while NASA has developed a ``Journey to Mars'' strategy that provides an initial outline of a pathway to Mars, we shouldn't have to say it again, but we need a baseline roadmap and structure to support such a multi-decadal endeavor, and we need that now. Such a roadmap would help put in sharp focus the impacts that the proposed reductions to the Space Launch System and the Orion crew vehicle, a combined 22 percent from the fiscal year 2016 enacted level, would have on making progress towards the humans-to-Mars goal.    Frankly, I'm a little bit puzzled by the deja vu we're experiencing with the proposed reductions to the SLS and Orion programs. I share that concern that the Chairman has expressed from the levels Congress appropriated just this past fiscal year in 2016.    Even more puzzling and somewhat concerning is a continued talk of targeting an internal date for the first crewed Orion and SLS flight and the EM-2 mission in 2021 when the resources being requested are actually geared to a 2023 date, and so that needs some explaining. The Aerospace Safety Advisory Panel raised caution about this kind of approach in its 2015 annual report when it said ``NASA has briefed the ASAP on measures... that appear to be making safety tradeoffs in order to maintain a 2021 EM-2 launch schedule.'' The ASAP went on to say ``while the desire to fly crew on Orion as soon as possible is understandable, NASA is building a long-term exploration program and adjustments to the near-term schedule or mission content that result in far safer systems can be an advantageous trade.''    Mr. Chairman, I know that you and I and many of our colleagues here this morning want to get to Mars sooner rather than later, but we must establish an enduring system that will get us there and back safely time and time again. To do so, we need to ask ourselves some important questions. Will Congress and NASA be able to establish the budgetary and programmatic discipline required to meet this goal? Will this committee and the Congress be true to providing the funding stability, sustainability, and constancy of purpose that we and others have said are critical for NASA as we prepare to transition to a new Administration less than a year from now? How will we navigate the bifurcated 2017 budget request, including both mandatory and discretionary funding, to provide the necessary stability?    And, Mr. Chairman, we owe our next generation a vibrant space agency, in partnership with industry, academia, and international partners, to continue its historic mission and to pursue the goal of one day sending humans to the surface of Mars. The future is now. The choice is ours, and it's up to us to ensure the future of our space program is a bright one.    I want to also acknowledge the presence here today of our future, Kendra Wood, who's an intern in my office and a graduate of the University of Maryland Eastern Shore. She is a superstar, and we owe it to her generation, also to our visitors from Spelman College, a senior at Spelman, Antonia Hill, who's visiting with us here today. And so let's keep these young people in mind as we talk about the future of space.    And I yield the balance of my time.</t>
   </si>
   <si>
@@ -70,6 +85,12 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lamar</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Chairman Smith. Thank you, Mr. Chairman.    And Administrator Bolden, welcome. I'm glad you're here.    Mr. Chairman, this committee has demonstrated time and again that U.S. leadership in space is a bipartisan priority. I believe that many of the hardworking scientists, engineers, and innovators working at NASA share our interest in ensuring America leads the world in space.    There are some areas of agreement between the Committee and the Administration in NASA's fiscal year 2017 budget request. But this proposed budget continues to tie our astronauts' feet to the ground and makes a Mars mission all but impossible.    This budget cuts funding for human exploration by nearly $1 billion, and robotic exploration by almost a quarter of a billion dollars. The budget request once again underfunds the Space Launch System and Orion programs. This Administration cannot continue to tout plans to send astronauts to Mars while strangling the programs that will take them there.    The Administration also attempts to redistribute funding within NASA's Science Mission Directorate. For example, Jupiter's moon Europa is one of the most promising destinations we have in our own solar system for finding life beyond our planet. However, this year's request of only $17 million for the Europa mission is incredibly disappointing considering the mission's potential. This represents roughly a 90 percent reduction from the fiscal year 2016 level.    However, support for other priorities such as the James Webb Space Telescope, the Transitioning Exoplanet Survey Satellite, and the Wide-Field Infrared Space Telescope is encouraging. Missions like these, as well as their search for exoplanets and signs of life in other areas of our universe, captivate the American public's imagination.    Overall, though, there is a lack of balance in the science account request. One of the most glaring examples is the disproportionate increase in the Earth Science Division receives at the expense of other science divisions and human and robotic space exploration. This represents a 70 percent increase for the Earth Science Division since the fiscal year 2007 request. Over the same period, NASA's overall yearly budget has only increased 20 percent.    The Earth science budget request is 42 percent more than the planetary science budget request. In fact, the planetary science budget request is a reduction of $113 million over last year's level. The Earth science request also is more than the Astrophysics Division, the James Webb Space Telescope, and the Heliophysics Division combined. There are 13 other federal agencies involved in Earth science research but only one that is responsible for space science and exploration, and that's     This budget also proposes $223 million to fund the uninspiring Asteroid Retrieval and Redirect Mission. On April 15, 2010, the President directed NASA to conduct a crewed mission to an asteroid by 2025. Then, with the 2014 budget request, the Administration changed course and directed NASA to redirect an asteroid to orbit the moon and then visit that asteroid in lunar orbit. Then, last year, NASA decided to only remove and redirect a boulder from a larger asteroid.    Originally scheduled for 2017, then 2020, this budget request now slips the first robotic launch to 2021. The crewed encounter will also slip to 2026 and more likely later based on SLS mission requirements. In practical terms, the President's own budget delays the ARM beyond the next Administration's second term.    All of NASA's advisory bodies have criticized the project. International interest is absent. The scientific community is unimpressed. The Administration continues to push this mission on NASA without any connection to a larger exploration roadmap and absent support from the scientific community or NASA's own advisory committees.    It is NASA's responsibility to provide a compelling plan for space exploration and execute it. It is Congress's responsibility to ensure NASA's budget is prioritized and funded. This committee will do everything in its power to support American leadership in space.    Mr. Chairman, before I yield back, let me compliment Administrator Bolden because I think he is a committed public servant. I think he is doing the best job anybody can do under the circumstances. And I have a hunch if he were writing this budget, it might vary slightly from the Administration's proposed budget.    You don't need to respond to that, Administrator Bolden, we all have our different priorities. But this is simply to say I appreciate the job that you're doing, and I continue to be impressed with your sincerity and dedication.    With that I'll yield back.</t>
   </si>
   <si>
@@ -79,6 +100,12 @@
     <t>400204</t>
   </si>
   <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Eddie</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Ms. Johnson. Thank you very much, Mr. Chairman.    Let me comment before my time starts on how pleased I am to hear those remarks from my Chairman. And I really agree with him, and that's extraordinary.    Let me say good morning to everyone and to acknowledge that I have a student here with me today, Adia Moss, who is a senior at Spelman, and hasten to say that I appreciate the long and distinguished service to our nation and your steady leadership of NASA, General Bolden. We know that this is a challenging and exciting time in the agency's history. I know how passionately you care about the nation's space and aeronautics program, and I look forward to hearing your testimony today.    Today's hearing marks the beginning of the Committee's consideration of the President's fiscal year 2017 NASA budget request. The $19 billion budget request is a strong endorsement by the President of the important role that NASA plays. We send budgets out of here with a lot less, and then we complain about what the President is doing, which is, to them, a lot less.    This is not to say that this is perfect for a NASA budget request, but I do agree with all the elements of it. It is a good starting point. It is Congress's deliberations. It is our responsibility to send what we feel is a responsible budget because it is what our focus should be today, what we want NASA to accomplish, and what we are willing to invest in NASA to do it so that we can achieve those objectives.    It may be tempting for some of us to spend our time criticizing the President for what they consider shortcomings in his budget request, but I think it's not a good use of anybody's time. The President has submitted his NASA budget request to Congress. It is now our job to determine the funding that NASA will receive and the policies it will follow. If we fail to do that, we will have no one to blame but ourselves.    That said, there is much to recommend in this NASA budget request. For example, I'm excited by the aeronautics initiative. I know the important role that aviation plays in our economy and our society, and NASA's R&amp;D has long provided the underpinnings of new capabilities in aviation. I'm also pleased by the investments made in NASA's science and technology activities. History shows us that these investments will pay dividends in increased knowledge and new technological capabilities.    On the other hand, I'm disappointed that the funding for the Space Launch System and the Orion spacecraft, the systems that are essential elements of the nation's future human exploration initiatives, have been cut in this budget request. We can change that if we wish. Such cuts add just one more challenge to those already facing the team of dedicated men and women who are working so hard to turn these exploration goals into reality. I would anticipate that Congress will reaffirm its support for SLS and the Orion by the time this year's funding deliberations are complete.    Which brings me to one final observation, namely, we will have a new President by this time next year. I know that there are those in NASA who feel the pressure to accomplish as much as possible on the new exploration systems before a new Administrator takes power. That's understandable. But it can wind up doing more harm than good. In its latest report, the Aerospace Safety Advisory Panel has raised concerns that perceived schedule pressure, whether external or self-imposed, can lead to excessive levels of risk being taken on in order to try to meet arbitrary deadlines. That's not the path to a sustainable or a successful program.    I hope that NASA management and workers will heed the ASAP's concern and not defer needed testing or make overly optimistic commitments in a shortsighted attempt to keep those programs alive in advance of a new Presidential Administration taking power. To all those NASA and contract employees, I would simply say, Congress supports SLS and Orion and commercial crew, and we will continue to do so no matter what we say here to make the news or the record. We will do this in spite of a new President taking office. We know that what we do actually is rocket science. So take time and the testing needed to do it right.    With that, Administrator Bolden, I again want to welcome you. I look forward to your testimony. And I yield back.</t>
   </si>
   <si>
@@ -148,6 +175,12 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Rohrabacher</t>
+  </si>
+  <si>
+    <t>Dana</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Rohrabacher. All right. Thank you very much.    General, I notice--welcome. Important I share the Chairman's and other people's admiration and gratitude to you----    Hon. Bolden. Thank you.</t>
   </si>
   <si>
@@ -238,6 +271,12 @@
     <t>412395</t>
   </si>
   <si>
+    <t>Brooks</t>
+  </si>
+  <si>
+    <t>Mo</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Brooks. Thank you, Mr. Chairman.    Administrator Bolden, first, I'd like to applaud your choice of Todd May as Director of the Marshall Space Flight Center located in my district. And I'd also like to thank his predecessor, Patrick Scheuermann, for his many years of service and leadership at NASA, especially at the Marshall Space Flight Center. I'm excited about the continued success at Marshall and throughout NASA.    That having been said, have you designated a NASA center lead for rocket propulsion that would be able to integrate all of NASA's expertise in deep space travel on the Journey to Mars?    Hon. Bolden. Congressman, we don't use the term ``lead center'' anymore. It has a bad connotation for people who were around at the time of Challenger.    But what we have done is we have an effort ongoing. It started out as something we call TCAT that I think we explained it to everybody. Now, it's just baseline services assessment where we're trying to identify centers who have the highest level of capability in a particular field. There is no question that the Marshall Space Flight Center is the--one of their core capabilities is propulsion, and so no question whether we're talking to DOD or anybody else outside of NASA that Marshall is the place that people go when they want to discuss in space and leaving the Earth propulsion issues.</t>
   </si>
   <si>
@@ -265,6 +304,12 @@
     <t>412657</t>
   </si>
   <si>
+    <t>Beyer</t>
+  </si>
+  <si>
+    <t>Donald</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Beyer. Thank you, Mr. Chairman, very much. Thank you, Administrator Bolden, for being with us again.    The planetary sciences come up again and again, and I think in the opening Chairman's remarks he talked about why is NASA paying for NOAA's satellite research? Why is NASA paying for USGS's Landsat stuff? So why? Why don't they pay for----    Hon. Bolden. In the case of USGS and Landsat it is because the Congress refused the President's budget request to transfer money for Landsat into the Department of interior. So this Congress decided that sustained land imaging is really important, and they put the money back in the--you know, according to my budget people, they put the money back into NASA because we've done it for so long. I'll go back and double-check my memory, but I think that--that's pretty simple in that case.</t>
   </si>
   <si>
@@ -313,6 +358,12 @@
     <t>412614</t>
   </si>
   <si>
+    <t>Knight</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Knight. Thank you, Mr. Chair, and thank you for having this.    Administrator Bolden, I want to thank you. You know I'm going to talk about the big A----    Hon. Bolden. Yes, sir.</t>
   </si>
   <si>
@@ -355,6 +406,12 @@
     <t>412192</t>
   </si>
   <si>
+    <t>Perlmutter</t>
+  </si>
+  <si>
+    <t>Ed</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Perlmutter. Thank you.</t>
   </si>
   <si>
@@ -374,6 +431,12 @@
   </si>
   <si>
     <t>412309</t>
+  </si>
+  <si>
+    <t>Posey</t>
+  </si>
+  <si>
+    <t>Bill</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Posey. Thank you, Mr. Chairman. And thank you, General, for your service to our armed forces and NASA.    Hon. Bolden. Thank you.</t>
@@ -827,7 +890,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:I136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -835,7 +898,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,3245 +920,3923 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>22</v>
+      </c>
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
       <c r="H6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>24</v>
+      </c>
+      <c r="I6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G8" t="s">
+        <v>28</v>
+      </c>
       <c r="H8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F12" t="s">
         <v>17</v>
       </c>
-      <c r="G10" t="s"/>
-      <c r="H10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" t="s">
+        <v>19</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F13" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+      <c r="H13" t="s">
         <v>14</v>
       </c>
-      <c r="G12" t="s"/>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" t="s">
-        <v>11</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-      <c r="G15" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G15" t="s">
+        <v>13</v>
+      </c>
       <c r="H15" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>13</v>
+      </c>
       <c r="H17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>11</v>
-      </c>
-      <c r="G19" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G19" t="s">
+        <v>13</v>
+      </c>
       <c r="H19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
       <c r="H20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>14</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
       <c r="H22" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
       <c r="H23" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>14</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
       <c r="H24" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>14</v>
-      </c>
-      <c r="G25" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I25" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>14</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>11</v>
-      </c>
-      <c r="G27" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
       <c r="H27" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>11</v>
-      </c>
-      <c r="G29" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
       <c r="H29" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>43</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
       <c r="H30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>43</v>
-      </c>
-      <c r="G31" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G31" t="s">
+        <v>53</v>
+      </c>
       <c r="H31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>43</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G32" t="s">
+        <v>53</v>
+      </c>
       <c r="H32" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I32" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
       <c r="H33" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I33" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>43</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G34" t="s">
+        <v>53</v>
+      </c>
       <c r="H34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I34" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>43</v>
-      </c>
-      <c r="G35" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G35" t="s">
+        <v>53</v>
+      </c>
       <c r="H35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I35" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>43</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G36" t="s">
+        <v>53</v>
+      </c>
       <c r="H36" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>43</v>
-      </c>
-      <c r="G37" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G37" t="s">
+        <v>53</v>
+      </c>
       <c r="H37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>43</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
       <c r="H38" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
-      </c>
-      <c r="G39" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G39" t="s">
+        <v>53</v>
+      </c>
       <c r="H39" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>43</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G40" t="s">
+        <v>53</v>
+      </c>
       <c r="H40" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="I40" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>43</v>
-      </c>
-      <c r="G41" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G41" t="s">
+        <v>53</v>
+      </c>
       <c r="H41" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G42" t="s">
+        <v>53</v>
+      </c>
       <c r="H42" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>43</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G43" t="s">
+        <v>53</v>
+      </c>
       <c r="H43" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I43" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>43</v>
-      </c>
-      <c r="G44" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G44" t="s">
+        <v>53</v>
+      </c>
       <c r="H44" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I44" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>43</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G45" t="s">
+        <v>53</v>
+      </c>
       <c r="H45" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>43</v>
-      </c>
-      <c r="G46" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G46" t="s">
+        <v>53</v>
+      </c>
       <c r="H46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I46" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>43</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G47" t="s">
+        <v>53</v>
+      </c>
       <c r="H47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>43</v>
-      </c>
-      <c r="G48" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G48" t="s">
+        <v>53</v>
+      </c>
       <c r="H48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I48" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>43</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G49" t="s">
+        <v>53</v>
+      </c>
       <c r="H49" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>43</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G50" t="s">
+        <v>53</v>
+      </c>
       <c r="H50" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I50" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>43</v>
-      </c>
-      <c r="G51" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G51" t="s">
+        <v>53</v>
+      </c>
       <c r="H51" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I51" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>43</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="G52" t="s">
+        <v>53</v>
+      </c>
       <c r="H52" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>54</v>
+      </c>
+      <c r="I52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
-      </c>
-      <c r="G53" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G53" t="s">
+        <v>13</v>
+      </c>
       <c r="H53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I53" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>20</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G54" t="s">
+        <v>28</v>
+      </c>
       <c r="H54" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I54" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>20</v>
-      </c>
-      <c r="G55" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G55" t="s">
+        <v>28</v>
+      </c>
       <c r="H55" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I55" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>20</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G56" t="s">
+        <v>28</v>
+      </c>
       <c r="H56" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I56" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>20</v>
-      </c>
-      <c r="G57" t="s"/>
+        <v>27</v>
+      </c>
+      <c r="G57" t="s">
+        <v>28</v>
+      </c>
       <c r="H57" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>29</v>
+      </c>
+      <c r="I57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G58" t="s">
+        <v>13</v>
+      </c>
       <c r="H58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>73</v>
-      </c>
-      <c r="G59" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G59" t="s">
+        <v>85</v>
+      </c>
       <c r="H59" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>73</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G60" t="s">
+        <v>85</v>
+      </c>
       <c r="H60" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>73</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G61" t="s">
+        <v>85</v>
+      </c>
       <c r="H61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>73</v>
-      </c>
-      <c r="G62" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G62" t="s">
+        <v>85</v>
+      </c>
       <c r="H62" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I62" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>73</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G63" t="s">
+        <v>85</v>
+      </c>
       <c r="H63" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>73</v>
-      </c>
-      <c r="G64" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G64" t="s">
+        <v>85</v>
+      </c>
       <c r="H64" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I64" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>73</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>84</v>
+      </c>
+      <c r="G65" t="s">
+        <v>85</v>
+      </c>
       <c r="H65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>11</v>
-      </c>
-      <c r="G66" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G66" t="s">
+        <v>13</v>
+      </c>
       <c r="H66" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>82</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G67" t="s">
+        <v>96</v>
+      </c>
       <c r="H67" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>82</v>
-      </c>
-      <c r="G68" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G68" t="s">
+        <v>96</v>
+      </c>
       <c r="H68" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>82</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G69" t="s">
+        <v>96</v>
+      </c>
       <c r="H69" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I69" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G70" t="s">
+        <v>96</v>
+      </c>
       <c r="H70" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I70" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>82</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G71" t="s">
+        <v>96</v>
+      </c>
       <c r="H71" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I71" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
-      </c>
-      <c r="G72" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G72" t="s">
+        <v>96</v>
+      </c>
       <c r="H72" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I72" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>82</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G73" t="s">
+        <v>96</v>
+      </c>
       <c r="H73" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
-      </c>
-      <c r="G74" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G74" t="s">
+        <v>96</v>
+      </c>
       <c r="H74" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I74" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>82</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G75" t="s">
+        <v>96</v>
+      </c>
       <c r="H75" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I75" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
-      </c>
-      <c r="G76" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G76" t="s">
+        <v>96</v>
+      </c>
       <c r="H76" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G77" t="s">
+        <v>96</v>
+      </c>
       <c r="H77" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I77" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>82</v>
-      </c>
-      <c r="G78" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G78" t="s">
+        <v>96</v>
+      </c>
       <c r="H78" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I78" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>82</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G79" t="s">
+        <v>96</v>
+      </c>
       <c r="H79" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I79" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>82</v>
-      </c>
-      <c r="G80" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G80" t="s">
+        <v>96</v>
+      </c>
       <c r="H80" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G81" t="s">
+        <v>13</v>
+      </c>
       <c r="H81" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I81" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>98</v>
-      </c>
-      <c r="G82" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G82" t="s">
+        <v>114</v>
+      </c>
       <c r="H82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I82" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>98</v>
-      </c>
-      <c r="G83" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G83" t="s">
+        <v>114</v>
+      </c>
       <c r="H83" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I83" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>98</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G84" t="s">
+        <v>114</v>
+      </c>
       <c r="H84" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I84" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>98</v>
-      </c>
-      <c r="G85" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G85" t="s">
+        <v>114</v>
+      </c>
       <c r="H85" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I85" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>98</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G86" t="s">
+        <v>114</v>
+      </c>
       <c r="H86" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I86" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>98</v>
-      </c>
-      <c r="G87" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G87" t="s">
+        <v>114</v>
+      </c>
       <c r="H87" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I87" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>98</v>
-      </c>
-      <c r="G88" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G88" t="s">
+        <v>114</v>
+      </c>
       <c r="H88" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I88" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>98</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G89" t="s">
+        <v>114</v>
+      </c>
       <c r="H89" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I89" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>98</v>
-      </c>
-      <c r="G90" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G90" t="s">
+        <v>114</v>
+      </c>
       <c r="H90" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I90" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>98</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G91" t="s">
+        <v>114</v>
+      </c>
       <c r="H91" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I91" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>98</v>
-      </c>
-      <c r="G92" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G92" t="s">
+        <v>114</v>
+      </c>
       <c r="H92" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I92" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>98</v>
-      </c>
-      <c r="G93" t="s"/>
+        <v>113</v>
+      </c>
+      <c r="G93" t="s">
+        <v>114</v>
+      </c>
       <c r="H93" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I93" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>112</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G95" t="s">
+        <v>130</v>
+      </c>
       <c r="H95" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I95" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>11</v>
-      </c>
-      <c r="G96" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G96" t="s">
+        <v>13</v>
+      </c>
       <c r="H96" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I96" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>112</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G97" t="s">
+        <v>130</v>
+      </c>
       <c r="H97" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I97" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>112</v>
-      </c>
-      <c r="G98" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G98" t="s">
+        <v>130</v>
+      </c>
       <c r="H98" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I98" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>112</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G99" t="s">
+        <v>130</v>
+      </c>
       <c r="H99" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I99" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>119</v>
-      </c>
-      <c r="G101" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G101" t="s">
+        <v>139</v>
+      </c>
       <c r="H101" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I101" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>119</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G102" t="s">
+        <v>139</v>
+      </c>
       <c r="H102" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I102" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>119</v>
-      </c>
-      <c r="G103" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G103" t="s">
+        <v>139</v>
+      </c>
       <c r="H103" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I103" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>119</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G104" t="s">
+        <v>139</v>
+      </c>
       <c r="H104" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I104" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>119</v>
-      </c>
-      <c r="G105" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G105" t="s">
+        <v>139</v>
+      </c>
       <c r="H105" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I105" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>119</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G106" t="s">
+        <v>139</v>
+      </c>
       <c r="H106" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I106" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>119</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G107" t="s">
+        <v>139</v>
+      </c>
       <c r="H107" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I107" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G108" t="s">
+        <v>139</v>
+      </c>
       <c r="H108" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I108" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>119</v>
-      </c>
-      <c r="G109" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G109" t="s">
+        <v>139</v>
+      </c>
       <c r="H109" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I109" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>11</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G110" t="s">
+        <v>13</v>
+      </c>
       <c r="H110" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I110" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>11</v>
-      </c>
-      <c r="G111" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G111" t="s">
+        <v>13</v>
+      </c>
       <c r="H111" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>11</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G112" t="s">
+        <v>13</v>
+      </c>
       <c r="H112" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I112" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>11</v>
-      </c>
-      <c r="G113" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G113" t="s">
+        <v>13</v>
+      </c>
       <c r="H113" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I113" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G114" t="s">
+        <v>13</v>
+      </c>
       <c r="H114" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>11</v>
-      </c>
-      <c r="G115" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G115" t="s">
+        <v>13</v>
+      </c>
       <c r="H115" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I115" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>11</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G116" t="s">
+        <v>13</v>
+      </c>
       <c r="H116" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I116" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>14</v>
-      </c>
-      <c r="G117" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G117" t="s">
+        <v>18</v>
+      </c>
       <c r="H117" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I117" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G118" t="s">
+        <v>13</v>
+      </c>
       <c r="H118" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I118" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>119</v>
-      </c>
-      <c r="G119" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G119" t="s">
+        <v>139</v>
+      </c>
       <c r="H119" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I119" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>119</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G120" t="s">
+        <v>139</v>
+      </c>
       <c r="H120" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I120" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>119</v>
-      </c>
-      <c r="G121" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G121" t="s">
+        <v>139</v>
+      </c>
       <c r="H121" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="122" spans="1:8">
+      <c r="I121" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>119</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G122" t="s">
+        <v>139</v>
+      </c>
       <c r="H122" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I122" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>119</v>
-      </c>
-      <c r="G123" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G123" t="s">
+        <v>139</v>
+      </c>
       <c r="H123" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I123" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>119</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G124" t="s">
+        <v>139</v>
+      </c>
       <c r="H124" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I124" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>119</v>
-      </c>
-      <c r="G125" t="s"/>
+        <v>138</v>
+      </c>
+      <c r="G125" t="s">
+        <v>139</v>
+      </c>
       <c r="H125" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I125" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G126" t="s">
+        <v>13</v>
+      </c>
       <c r="H126" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>82</v>
-      </c>
-      <c r="G127" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G127" t="s">
+        <v>96</v>
+      </c>
       <c r="H127" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I127" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>82</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G128" t="s">
+        <v>96</v>
+      </c>
       <c r="H128" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I128" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>82</v>
-      </c>
-      <c r="G129" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G129" t="s">
+        <v>96</v>
+      </c>
       <c r="H129" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>82</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>95</v>
+      </c>
+      <c r="G130" t="s">
+        <v>96</v>
+      </c>
       <c r="H130" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>97</v>
+      </c>
+      <c r="I130" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
-      </c>
-      <c r="G131" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G131" t="s">
+        <v>13</v>
+      </c>
       <c r="H131" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I131" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>112</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G132" t="s">
+        <v>130</v>
+      </c>
       <c r="H132" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I132" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>112</v>
-      </c>
-      <c r="G133" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G133" t="s">
+        <v>130</v>
+      </c>
       <c r="H133" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I133" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>112</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G134" t="s">
+        <v>130</v>
+      </c>
       <c r="H134" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I134" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>112</v>
-      </c>
-      <c r="G135" t="s"/>
+        <v>129</v>
+      </c>
+      <c r="G135" t="s">
+        <v>130</v>
+      </c>
       <c r="H135" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>131</v>
+      </c>
+      <c r="I135" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>11</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G136" t="s">
+        <v>13</v>
+      </c>
       <c r="H136" t="s">
-        <v>154</v>
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>175</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20838.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20838.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="182">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412655</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Babin</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>412263</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Edwards</t>
   </si>
   <si>
@@ -85,6 +94,9 @@
     <t>400381</t>
   </si>
   <si>
+    <t>Ex Officio</t>
+  </si>
+  <si>
     <t>Smith</t>
   </si>
   <si>
@@ -175,6 +187,9 @@
     <t>400343</t>
   </si>
   <si>
+    <t>Member</t>
+  </si>
+  <si>
     <t>Rohrabacher</t>
   </si>
   <si>
@@ -269,6 +284,9 @@
   </si>
   <si>
     <t>412395</t>
+  </si>
+  <si>
+    <t>Vice Chair</t>
   </si>
   <si>
     <t>Brooks</t>
@@ -890,7 +908,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I136"/>
+  <dimension ref="A1:J136"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -898,7 +916,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -923,3920 +941,4328 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>28</v>
+      </c>
+      <c r="J6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" t="s">
+        <v>21</v>
+      </c>
+      <c r="I12" t="s">
         <v>22</v>
       </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="J12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>14</v>
       </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
+        <v>15</v>
+      </c>
+      <c r="I13" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H13" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I13" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H19" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J19" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I23" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I25" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J26" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I28" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I29" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G30" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H30" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I30" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G31" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H31" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I31" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G32" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H32" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I32" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G34" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H34" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I34" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="35" spans="1:9">
+      <c r="J34" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G35" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H35" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I35" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J35" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G36" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H36" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I36" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J36" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G37" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G38" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H38" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I38" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J38" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G39" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H39" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I39" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G40" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H40" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I40" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J40" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G41" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H41" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I41" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J41" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G42" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H42" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G43" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H43" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I43" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J43" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G44" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H44" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I44" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J44" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G45" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H45" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I45" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J45" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G46" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H46" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I46" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J46" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G47" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H47" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J47" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G48" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H48" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J48" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G49" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H49" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I49" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J49" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H50" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I50" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J50" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G51" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H51" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I51" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J51" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G52" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="H52" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="I52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>59</v>
+      </c>
+      <c r="J52" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H53" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J53" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G54" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H54" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J54" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H55" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I55" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G56" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H56" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J56" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="G57" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H57" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>33</v>
+      </c>
+      <c r="J57" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H58" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I58" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G59" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H59" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I59" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G60" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H60" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I60" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J60" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G61" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H61" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I61" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J61" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G62" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H62" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I62" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J62" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G63" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H63" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I63" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J63" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G64" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H64" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I64" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="65" spans="1:9">
+      <c r="J64" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="G65" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="H65" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I65" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>92</v>
+      </c>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H66" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I66" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G67" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H67" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I67" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G68" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H68" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H69" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I69" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I70" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G71" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I71" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J71" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G72" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I72" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="73" spans="1:9">
+      <c r="J72" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G73" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I73" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J73" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G74" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H74" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I74" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J74" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G75" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H75" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I75" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J75" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G76" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H76" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I76" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J76" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G77" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H77" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I77" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J77" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G78" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H78" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I78" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J78" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G79" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I79" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J79" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G80" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H80" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I80" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J80" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G81" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H81" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I81" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J81" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G82" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H82" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I82" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J82" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G83" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H83" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I83" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J83" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G84" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H84" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I84" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J84" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G85" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H85" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I85" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J85" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G86" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H86" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I86" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J86" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G87" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H87" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I87" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="88" spans="1:9">
+      <c r="J87" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G88" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H88" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I88" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J88" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G89" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H89" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I89" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J89" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G90" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H90" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J90" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G91" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H91" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I91" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J91" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G92" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H92" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I92" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J92" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="G93" t="s">
-        <v>114</v>
+        <v>57</v>
       </c>
       <c r="H93" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="I93" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>121</v>
+      </c>
+      <c r="J93" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G95" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="H95" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I95" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J95" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I96" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G97" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="H97" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I97" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J97" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G98" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="H98" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I98" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J98" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G99" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="H99" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I99" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J99" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G101" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H101" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I101" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J101" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G102" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H102" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I102" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J102" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G103" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H103" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I103" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J103" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G104" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H104" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I104" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J104" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G105" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H105" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I105" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J105" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G106" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H106" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I106" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="107" spans="1:9">
+      <c r="J106" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G107" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H107" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I107" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J107" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G108" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H108" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I108" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J108" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G109" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H109" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I109" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J109" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G110" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H110" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I110" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J110" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I111" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J111" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H112" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I112" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J112" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H113" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I113" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J113" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I114" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H115" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I115" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H116" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I116" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J116" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G117" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H117" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I117" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J117" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G118" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H118" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I118" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J118" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G119" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I119" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J119" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G120" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H120" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I120" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J120" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G121" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H121" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I121" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J121" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G122" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H122" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I122" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J122" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G123" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H123" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I123" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G124" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H124" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I124" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J124" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="G125" t="s">
-        <v>139</v>
+        <v>57</v>
       </c>
       <c r="H125" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="I125" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>146</v>
+      </c>
+      <c r="J125" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G126" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H126" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I126" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J126" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G127" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H127" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I127" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J127" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G128" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H128" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I128" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J128" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G129" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H129" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I129" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J129" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="G130" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
       <c r="H130" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="I130" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>103</v>
+      </c>
+      <c r="J130" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G131" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H131" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I131" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G132" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="H132" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I132" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J132" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G133" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="H133" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I133" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J133" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G134" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="H134" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I134" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J134" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G135" t="s">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="H135" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I135" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>137</v>
+      </c>
+      <c r="J135" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I136" t="s">
-        <v>175</v>
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
